--- a/mySystem/mySystem/xls/CSBag/QB-PA-PP-03-R02A 产品热合强度检验记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/QB-PA-PP-03-R02A 产品热合强度检验记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\QB PA-PP-生产过程标准\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\CSBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,13 @@
   <sheets>
     <sheet name="20151028" sheetId="1" r:id="rId1"/>
     <sheet name="20170721" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -295,11 +294,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>操作人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>复核人</t>
+    <t>检测人</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +634,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,13 +673,40 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,51 +1055,51 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="38" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1127,8 +1152,8 @@
       <c r="P4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="38"/>
     </row>
     <row r="5" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
@@ -1451,13 +1476,13 @@
     </row>
     <row r="16" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="31"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="24" t="s">
@@ -1493,23 +1518,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="12.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="22" customWidth="1"/>
-    <col min="6" max="13" width="5.125" style="22" customWidth="1"/>
-    <col min="14" max="16" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="22.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="22" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="22" customWidth="1"/>
+    <col min="6" max="6" width="3.625" style="22" customWidth="1"/>
+    <col min="7" max="12" width="5.125" style="22" customWidth="1"/>
+    <col min="13" max="15" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1526,68 +1556,60 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="O1" s="4"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="39"/>
-    </row>
-    <row r="3" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="Q3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:17" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1600,412 +1622,394 @@
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="43"/>
+      <c r="G4" s="25">
         <v>1</v>
       </c>
-      <c r="G4" s="25">
+      <c r="H4" s="25">
         <v>2</v>
       </c>
-      <c r="H4" s="25">
+      <c r="I4" s="25">
         <v>3</v>
       </c>
-      <c r="I4" s="25">
+      <c r="J4" s="25">
         <v>4</v>
       </c>
-      <c r="J4" s="25">
+      <c r="K4" s="25">
         <v>5</v>
       </c>
-      <c r="K4" s="25">
+      <c r="L4" s="25">
         <v>6</v>
       </c>
-      <c r="L4" s="25">
-        <v>7</v>
-      </c>
-      <c r="M4" s="25">
+      <c r="M4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-    </row>
-    <row r="5" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="41"/>
+    </row>
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="17">
-        <f>MIN(F5:M5)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="18">
-        <f>MAX(F5:N5)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="19">
-        <f>AVERAGE(F5:O5)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M5" s="17">
+        <f t="shared" ref="M5:M15" si="0">MIN(G5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <f t="shared" ref="N5:N15" si="1">MAX(G5:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <f>AVERAGE(G5:N5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="17">
-        <f>MIN(F6:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="18">
-        <f>MAX(F6:N6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="19">
-        <f>AVERAGE(F6:O6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="19">
+        <f>AVERAGE(G6:N6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="17">
-        <f>MIN(F7:M7)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
-        <f>MAX(F7:N7)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="19">
-        <f>AVERAGE(F7:O7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <f>AVERAGE(G7:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="17">
-        <f t="shared" ref="N8:N14" si="0">MIN(F8:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" ref="O8:O14" si="1">MAX(F8:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="19">
-        <f t="shared" ref="P8:P14" si="2">AVERAGE(F8:O8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="13"/>
-    </row>
-    <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="19">
+        <f t="shared" ref="O8:O14" si="2">AVERAGE(G8:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="17">
+      <c r="M9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="18">
+      <c r="N9" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="19">
+      <c r="O9" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="13"/>
-    </row>
-    <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P9" s="20"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="17">
+      <c r="M10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="18">
+      <c r="N10" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="19">
+      <c r="O10" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="17">
+      <c r="M11" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="18">
+      <c r="N11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="19">
+      <c r="O11" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P11" s="20"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="17">
+      <c r="M12" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="18">
+      <c r="N12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P12" s="19">
+      <c r="O12" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="13"/>
-    </row>
-    <row r="13" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="17">
+      <c r="M13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="18">
+      <c r="N13" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="19">
+      <c r="O13" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="13"/>
-    </row>
-    <row r="14" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P13" s="20"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="17">
+      <c r="M14" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="18">
+      <c r="N14" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="19">
+      <c r="O14" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="13"/>
-    </row>
-    <row r="15" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="17">
-        <f>MIN(F15:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="18">
-        <f>MAX(F15:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="19">
-        <f>AVERAGE(F15:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="13"/>
-    </row>
-    <row r="16" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="19">
+        <f>AVERAGE(G15:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
-      <c r="N16" s="26" t="s">
+      <c r="M16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="30"/>
-    </row>
-    <row r="17" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="24" t="s">
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
+    </row>
+    <row r="17" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="22"/>
-      <c r="X17" s="22"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="V17" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:P3"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2013,19 +2017,4 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/mySystem/mySystem/xls/CSBag/QB-PA-PP-03-R02A 产品热合强度检验记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/QB-PA-PP-03-R02A 产品热合强度检验记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\检验记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\newnew\mitcpro\mySystem\mySystem\xls\CSBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,14 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品代码：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品批号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -198,6 +190,10 @@
   </si>
   <si>
     <t>西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -252,7 +248,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>合格</t>
+    <t>产品代码：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品批号：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -511,17 +511,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,9 +578,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -634,6 +620,15 @@
     <xf numFmtId="177" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,6 +639,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,12 +650,6 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -667,6 +659,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,22 +671,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,13 +990,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="20" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="19" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="13" customWidth="1"/>
     <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.125" style="13" customWidth="1"/>
@@ -1045,106 +1034,106 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:21" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:21" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="28"/>
+    </row>
+    <row r="4" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="26" t="s">
+      <c r="B5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="29"/>
-    </row>
-    <row r="4" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>18</v>
+      <c r="D5" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -1176,18 +1165,18 @@
       <c r="O5" s="14">
         <v>10</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="46"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
     </row>
     <row r="6" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
@@ -1195,11 +1184,11 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>20</v>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1223,8 +1212,8 @@
         <f>AVERAGE(F6:Q6)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="53" t="s">
-        <v>25</v>
+      <c r="S6" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="6"/>
@@ -1235,9 +1224,9 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="49" t="s">
-        <v>21</v>
+      <c r="D7" s="7"/>
+      <c r="E7" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1271,9 +1260,9 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="49" t="s">
-        <v>22</v>
+      <c r="D8" s="7"/>
+      <c r="E8" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1308,10 +1297,10 @@
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1345,9 +1334,9 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="49" t="s">
-        <v>21</v>
+      <c r="D10" s="7"/>
+      <c r="E10" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1381,9 +1370,9 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="49" t="s">
-        <v>22</v>
+      <c r="D11" s="7"/>
+      <c r="E11" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1786,18 +1775,32 @@
       <c r="U22" s="6"/>
     </row>
     <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="P23" s="34" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="38"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="P23:R23"/>
     <mergeCell ref="S23:U23"/>
     <mergeCell ref="A2:S2"/>
@@ -1806,8 +1809,7 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A23:O23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
